--- a/Excel/excel/chinese.xlsx
+++ b/Excel/excel/chinese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA6D443-0636-4466-9C5E-473BDAEF80C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357D69A-75B7-44E7-8E8C-DEE8B1374794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="7530" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>扩建部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,20 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:K5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="9.9375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -535,31 +539,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -567,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -575,23 +582,26 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -607,19 +617,22 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
     </row>
@@ -633,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
   <dimension ref="A2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/Excel/excel/chinese.xlsx
+++ b/Excel/excel/chinese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357D69A-75B7-44E7-8E8C-DEE8B1374794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18E431-0F15-43BD-A3AE-628467D97CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,26 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spadespade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monkley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monkey1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monkey2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +173,318 @@
   </si>
   <si>
     <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threeWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newIndustry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱翻倍（最多20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽2张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募1名永久员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募3名临时员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开垦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开垦2块土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级1次部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingCrazyly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadowIndustry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10收入，获得一张坏点子牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级2次部门，获得一张坏点子牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockFree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lakeFree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖泊清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理掉1个随机岩石地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理掉1个随机湖泊地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaimOvernight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连夜开垦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开垦4块土地，获得一张坏点子牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseRecycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废案回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从弃牌堆选1张牌加入手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectScreening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从抽牌堆选3张牌弃至弃牌堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点人气值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adBombardment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告轰炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得15点人气值,获得一张坏点子牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiddenTreasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏宝藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉任意手牌，抽取等量牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉任意手牌，每张手牌获得3金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机1个空地上生成一个+5金钱奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制1张手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略所有条件免费打出1张手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从抽牌堆获得1张随机部门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseExpansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库扩充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌上限永久+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionDepartmentExpansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传部门扩张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级宣传部门2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internalPurge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10收入，但是不会获得任何利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无事发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险投资人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位保险投资人来到了动物园。他说：“我可以帮你保管你的资金，无论如何，每季度你都可以收到一笔稳定的钱。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,8 +528,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,18 +815,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="9.9375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.92578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.78515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -560,13 +855,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -598,15 +893,15 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -621,19 +916,19 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -647,12 +942,12 @@
   <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -660,42 +955,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -713,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -728,12 +1023,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -751,12 +1046,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -789,12 +1084,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -827,35 +1122,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -888,35 +1183,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
         <v>40</v>
       </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>0.4</v>
-      </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -957,18 +1252,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56531302-81BA-451E-B9F8-11674876B135}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.2109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.78515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -978,16 +1275,347 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -998,19 +1626,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA98B64-469E-407C-B910-179387990111}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.9375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.92578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.78515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1027,9 +1655,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1041,6 +1669,23 @@
         <v>14</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
@@ -1052,18 +1697,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E1049-6494-417E-A790-6BE56169812D}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1086,21 +1733,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/chinese.xlsx
+++ b/Excel/excel/chinese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C851A6-5C63-468B-A24C-82F7D2AEC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB8150B-F2A5-4D9D-B2D9-90E20E8CFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="833">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得10收入，但是不会获得任何利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无事发生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不会再弃牌，但是收入减半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得的人气值翻倍，但是只有前5个场馆会生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矮人五兄弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,14 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合开始时抽2张牌，但是所有牌的费用增加50%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每季度开始时地图上出现随机奖励，但是每季度开始时会增加一张坏点子到手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地质学家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的坏点子牌都会转化成随机项目牌，但是你扩建的费用翻倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一位专业的管理人员向你递来了简历。他拥有丰富的项目管理经验。你确信如果雇佣了他，你的园区项目再也不会有任何的烂点子了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每季度开始时，随机获得下列其中一项：+10块钱，+1临时工人，-5人气值，+1坏点子牌，+1随机物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>留言板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书籍效果翻倍，但是不能打出任何成就牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彩票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率获得20金钱，50%失去20金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恶魔的交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,14 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得200金币，但是你不会再得到任何的利息与场地奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2个永久工人，但是你派遣特殊工人不会有任何效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>两兄弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,30 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复执行部门行动也只需要一个工人，工人在被招募两个回合内不能被派遣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度结束时，你每有一个未派遣的工人就获得3金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个季度开始时有50%概率获得10金币，但是，坏概率增加5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5收入，但是，将所有春季替换为冬季。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的效果内包含X的场馆在结算时X值+1，但是减10收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时工人可以当作2个工人，但是不能再拆除场馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单人成军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1586,18 +1518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>园区内至少拥有10个种类相同的场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内至少拥有10个猿猴场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该部门效果始终为当前等级的研究部门。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猿猴主题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1622,74 +1542,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你可以直接弃掉坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有至少8个哺乳类场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有至少15个动物场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有虎，豹，熊，狮动物场馆各至少1各。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25%概率获得1个随机书籍；55%概率获得5金钱；30%概率获得1个临时工人。如果三个选项均被触发，获得一个随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50%概率获得5金钱；25%概率获得10金钱；15%概率获得30金钱。如果三个选项均被触发，获得一个随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得X人气值，X为本季度结算过的爬虫场馆数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>园区内拥有至少8个爬虫类场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猿猴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某一季度累计从猿猴场馆获得50人气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有两种动物场馆各至少5个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计扩建30块地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拥有至少3个大型场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有至少10个海洋场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有至少10个效果内有X的场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有至少10个与湖泊地形相邻的场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内拥有至少15个小型动物场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商店会补货。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1809,10 +1673,6 @@
     <t>event_2</t>
   </si>
   <si>
-    <t>你商店购买书籍时会随机减免1-5金钱，但是商店的项目卡会贵1金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1833,10 +1693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不能被弃置。尽可在春季打出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通货膨胀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1885,26 +1741,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1点时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得$1金钱，获得$2人气值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花费$1金钱，开扩$2块未知地块。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花费$2金钱，升级部门$1次。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每季度开始时随机获得一些东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正面概率加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1917,42 +1761,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每季度开始时获得人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每季度开始时获得书籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每季度开始时有50%概率获得金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每季度开始时随机出现地图奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每季度开始时获得随机坏点子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买书籍随机减免1-5金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店项目牌价格额外增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商店会补货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加商店的售卖数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爬虫场馆再次结算的概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1965,42 +1781,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动物场馆中获得人气增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人气值额外获得百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X场馆额外获得的人气值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下一个场馆获得人气时，改为获得金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大型场馆额外获得的人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临河场馆额外获得的人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猿猴场馆额外获得的人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>利息额外倍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外可以获得利息的规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>利息的多少部分转为额外的人气值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2009,10 +1797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度结束时，每个未派遣的工人获得的金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束时金钱减半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2029,22 +1813,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌的额外金币花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>春季变成冬季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以直接弃置坏点子牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每弃掉一张牌就获得金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不能拆除场馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2053,26 +1825,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行部门效果较少需要的员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重复执行部门效果只需要一个工人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店购买物品后获得人气值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用书籍后获得人气值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用书籍有概率获得另一本书籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下一张牌打出两次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2097,26 +1853,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坏点子牌会转化为随机项目牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿到牌后有概率直接弃掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不能打出成就牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆除场馆时招聘员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩建时招募临时员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书籍效果翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2137,10 +1877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>售出书籍的价格比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看抽牌堆时，按照顺序查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2149,14 +1885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视为你有一个与所有场馆都相邻的场馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算相邻时，可以额外计算的距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建设场馆减少花费的金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2221,14 +1949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅本回合人气值提升百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出手牌中$1张猿猴场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费扩建$1块地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2253,10 +1973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招募$1名永久员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招募$1名临时员工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2273,22 +1989,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开垦$1块土地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级$1次部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级$1次部门，获得一张坏点子牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得$1收入，获得一张坏点子牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清理掉$1个随机岩石地块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2297,10 +2001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开垦$1块土地，获得一张坏点子牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从弃牌堆选$1张牌加入手牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2313,10 +2013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1点人气值,获得一张坏点子牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机$1个空地上生成一个+$2金钱奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2329,10 +2025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忽略所有条件免费打出$1张手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复制$1张手牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2349,30 +2041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅春季可用，结算所有场馆后，人气值增加$w1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$w1张猿猴场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除手上的$w1张坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择1个从卡牌建成的动物场馆，复制$1张该卡牌到手牌中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募一名特殊员工，该员工被派遣去研究时，抽$wr1张牌。之后额外获得一张随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募一名特殊员工，该员工被派遣去建设时，额外获得$wr1点时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得$1人气值。该场馆视为与所有场馆相邻。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2381,14 +2049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得X人气值，X为园区内场馆数量。（当前$d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每与另一个场馆相邻，获得$1人气值。如果一共与至少$2个猿猴场馆相邻，则额外提供$3人气值。（当前$d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗$1%金钱，获得等同于消耗量的人气值。（当前$d）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2409,10 +2069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度开始结算时，获得$1人气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算相邻时视为你拥有$1个与全部场馆相邻的猴类场馆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2425,18 +2081,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接下来$1张牌均为猴类牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从猿猴场馆获得的人气值增加$1%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度结束时，每有1名员工，获得$1金钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行部门效果所需的员工数减$1。（最少仍然需要1个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2449,22 +2097,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次在商店进行购买后，本季度开始结算人气值时，获得$1点人气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你可以以$1%的售价出售物品。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果仅与一个场馆严格相邻。这两个场馆获得的人气值都翻倍。获得$1人气值。（需要先于相邻场馆结算，相邻场馆才能翻倍）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得$1人气值。获得$2亚洲狮场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来的场馆获得人气值时，改为获得等量的金钱。获得$1人气值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2489,34 +2125,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅夏季可用，结算所有场馆后，人气值提升$w1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$w1张哺乳类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理一个场馆，返还建造成本$w1%的金钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雇佣$w1名临时员工。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本季度结束时每个尚未派遣过的工人，获得$1金钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用书籍时，有$1%概率获得1个随机书籍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设场馆的时间花费减$1。（最少1点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建设场馆的金钱花费减$1。（最少1点）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2525,10 +2141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每季度开始时，50%概率获得$1金钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将你利息的$1%作为额外的人气值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2537,26 +2149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以获得利息的规模翻$1倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募1名特殊员工，该员工被派遣去扩建时，额外扩建$wr1块地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得$1人气值。科摩多巨蜥场馆可以建在同一个地点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1人气值。但有$2%概率获得1张随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得$1人气值。如果没有与任何场馆严格相邻，改为获得$2人气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得$1金钱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2573,22 +2169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅秋季可用，结算所有场馆后，人气值提升$w1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费建造$w1个大型场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得$w1金钱。每次执行都会永久提升该数值$w2点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下$w1张爬虫类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费扩建$w1块地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2597,10 +2181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好概率会增加$1%。打出时会获得$2张随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收入翻$1倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2609,10 +2189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1金钱，有$2%的概率获得1张随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扩建$1块地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2649,10 +2225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得X人气值，X为累计获得过的坏点子数。(当前为$d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得X人气值，X为累计使用过的书籍数。(当前为$d)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2665,18 +2237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得X人气值，X为与岩石地形相邻的场馆数*$1。(当前为$d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得X人气值，X为与湖泊地形相邻的场馆数*$1。(当前为$d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得X人气值，X为海洋场馆数*$1。(当前为$d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得X人气值，X为你的当前金钱/$1。(当前为$d)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2689,26 +2249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有效果内有X的场馆建设费用减少$1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用一个书籍后，本季度结算人气值前获得$1人气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从与湖泊地形相邻的场馆获得的人气值都会额外增加$1点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅冬季可用，结算所有场馆后，人气值提升$w1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$w1张海洋场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽$w1张牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2765,26 +2305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1*X人气值，X为本季度结算过的爬虫场馆数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得$1*X人气值，X为本季度结算过的爬虫场馆数。$2%概率获得1张随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该员工被派遣时，抽$1张牌。之后额外获得一张随机坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该员工被派遣时，获得$1点时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该员工被派遣时，扩建$1块随机地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该员工被派遣时，获得$1名临时员工。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2793,94 +2313,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免费打出手牌中$w1张猿猴场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每有可建造的空地，获得$1人气值。(当前$b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募$1名新员工，花费10+招募次数*10的金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区内至少拥有10个可以建造的场地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去一次商店，价格变为$1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得$1个书籍字段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得$1个书籍字段。每季度开始时，获得$1个随机书籍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专案优化部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅春季可用，结算所有场馆后，人气值增加$1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$1张猿猴场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除手上的$1张坏点子牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅夏季可用，结算所有场馆后，人气值提升$1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$1张哺乳类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理一个场馆，返还建造成本$1%的金钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雇佣$1名临时员工。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅秋季可用，结算所有场馆后，人气值提升$1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费建造$1个大型场馆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1金钱。每次执行都会永久提升该数值$2点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$1张爬虫类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅冬季可用，结算所有场馆后，人气值提升$1%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得抽牌堆中的下$1张海洋场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择{num=5}张牌弃置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2921,10 +2365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除最多{num=1}张坏点子牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费打出最多{num=1}张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3061,73 +2501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆除1个场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't have enough time or money!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can't play it!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can't play any achievement card!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't  meet the requiremant!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't have enough room for this venue!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can't play any achievement card!!! Stop play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't  meet the requiremant!!! Stop play</t>
-  </si>
-  <si>
-    <t>Don't have enough room for this venue!!! Stop play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get gold {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can only be used once per turn!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You don't have any venue!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can not demolish venue!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only available in Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only available in Summer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only available in August</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only available in Winter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cantPlayIt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3189,6 +2562,789 @@
   </si>
   <si>
     <t>OnlyInWinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$w1金钱，获得抽牌堆中的下一张猿猴场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$w1金钱，获得抽牌堆中的下一张哺乳类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1个书籍栏位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率获得$1收入。将这张卡牌返回手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$w1金钱，获得抽牌堆中的下一张爬虫类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1个书籍栏位。每季度开始时，获得$1个随机书籍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张海洋场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目优化部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付$1%的建造金钱，拆除一个场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张猿猴场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出手牌中1张猿猴场馆。(每季度限$1次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张哺乳类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10金钱。每次执行都会永久提升该数值$1点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张爬虫类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募工人价格翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能派遣特殊工人</t>
+  </si>
+  <si>
+    <t>不能派遣临时工人</t>
+  </si>
+  <si>
+    <t>拥有的永久规划牌数</t>
+  </si>
+  <si>
+    <t>重复执行部门行动也只需要一个工人，不能派遣任何临时工人或特殊工人。招募工人价格翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能获得任何收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每与一个场馆相邻，获得$1人气值。如果一共与至少$2个猿猴场馆相邻，则额外提供$3人气值。（当前$d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为场馆数量。（当前$d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有10个种类相同的场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有10个猿猴场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有20个可以建造的场地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一季度从猿猴场馆获得至少50人气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时，获得$1人气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅春季可用，从场馆获得的人气值增加$w1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除手上的$w1张诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究部门分部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始终与研究部门效果相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费打出手牌中1张猿猴场馆。(每季度限$w1次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择1个动物场馆，复制$1张该卡牌到手牌中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来$1张从抽牌堆获取的牌均为猿猴模组的牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募一名特殊员工，该员工被派遣时，获得$wr1点时间点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募一名特殊员工，该员工被派遣时，抽$wr1张牌。之后额外获得一张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度结束时，每有1名未派遣的员工，获得$1金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次在商店进行购买后，获得$1点人气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果仅与一个场馆相邻。这两个场馆获得的人气值都翻倍。获得$1人气值。（需要先于相邻场馆结算，相邻场馆才能翻倍）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1人气值。获得$2张亚洲狮场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以直接弃掉诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅冬季可用，从场馆获得的人气值增加$w1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅秋季可用，从场馆获得的人气值增加$w1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅夏季可用，从场馆获得的人气值增加$w1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除一个场馆，返还建造成本$w1%的金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度结束时，每个尚未派遣过的工人，获得$1金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%概率获得1个随机书籍；55%概率获得5金钱；30%概率获得1个临时工人。如果三个选项均被触发，获得一个随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率获得5金钱；25%概率获得10金钱；15%概率获得30金钱。如果三个选项均被触发，获得一个随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设场馆的时间点数花费减$1。（最少1点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以获得利息的部分翻$1倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募1名特殊员工，该员工被派遣时，随机扩建$wr1块地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为$1*本季度结算过的爬虫场馆数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1人气值。如果没有与任何场馆相邻，改为获得$2人气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有1块可建造的空地，获得$1人气值。(当前$b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有至少8个哺乳类场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有至少15个动物场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有虎，豹，熊，狮动物场馆各至少1个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有至少8个爬虫类场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有两种动物场馆各至少5个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有3个大型场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费打出$w1个大型场馆卡牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向概率会增加$1%。打出时会获得$2张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1金钱，有$2%的概率获得1张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1人气值。但有$2%概率获得1张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为$1*本季度结算过的爬虫场馆数。$2%概率获得1张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为与$1*岩石地形相邻的场馆数。(当前为$d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为与$1*湖泊地形相邻的场馆数。(当前为$d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为$1*海洋场馆数。(当前为$d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有15个小型动物场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有10个与湖泊地形相邻的场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有10个效果内有X的场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少拥有10个海洋场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有效果内有X的场馆建设金钱费用减少$1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个书籍后，获得$1人气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从湖泊地形相邻的场馆获得的人气值增加$1点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被弃置。仅可在春季打出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅春季可用，从场馆获得的人气值增加$1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅秋季可用，从场馆获得的人气值增加$1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅冬季可用，从场馆获得的人气值增加$1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅夏季可用，从场馆获得的人气值增加$1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1点时间点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费10+招募次数*10的金币,招募$1名新员工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次采购，商品价格变为原本的$1%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，扩建$2块未知地块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该部门为当前等级的研究部门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除一个场馆，返还建造成本$1%的金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时获得的人气数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时获得书籍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时有50%概率获得的金钱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时随机出现的地图奖励数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时获得的随机诅咒牌数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度开始时随机获得一些东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店项目牌价格额外增加的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店增加的售卖数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物场馆中获得的人气增加百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人气值额外获得的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从X场馆额外获得的人气值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型场馆额外获得的人气数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临河场馆额外获得的人气数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿猴场馆额外获得的人气数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外可以获得利息的倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度结束时，每个未派遣的工人获得的金钱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌的额外金币花费数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每弃掉一张牌就获得的金钱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行部门效果减少的员工需求数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买物品后获得的人气值数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用书籍后获得的人气值数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用书籍时获得另一本书籍的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒牌会转化为随机项目牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到牌后直接弃掉的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除场馆时招聘的员工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建时招募的临时员工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售出书籍时的价格比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视为你有一个与所有场馆都相邻的猿猴类场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2距离内都算作相邻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅本回合额外获得的人气值百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募$1名员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建$1块土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1点人气值,获得一张随机诅咒牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建$1块土地，获得一张随机诅咒牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1收入，获得一张随机诅咒牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级$1次部门，获得一张随机诅咒牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费打出$1张手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的时间点数或金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足打出的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的空间建造这个场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能打出成就牌，停止打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足打出的条件，停止打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的空间建造这个场馆，停止打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金钱 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回合最多使用一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有任何场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不能拆除场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅春季可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅夏季可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅秋季可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅冬季可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10收入，但是不会获得任何利息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会再弃牌，也不会获得任何收入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的人气值翻倍，但是只有前5个场馆会生效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始时抽2张牌，但是所有牌的金钱费用增加50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每季度开始时地图上出现随机奖励，但是每季度开始时会增加一张随机诅咒牌到手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的诅咒牌都会转化成随机项目牌，但是你扩建的费用翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍效果翻倍，但是不能打出任何成就牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率获得20金钱，50%失去20金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得200金币，但是你不会再得到任何的利息与场地奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2个永久工人，但是你派遣特殊工人不会有任何效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度结束时，你每有一个未派遣的工人就获得3金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你商店购买书籍时会随机减免1-5金钱，但是商店的项目卡价格会增加1金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5收入，但是将所有春季替换为冬季。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个季度开始时有50%概率获得10金币，但是负面概率增加5%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的效果内包含X的场馆在结算时X值+1，但是减10收入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时工人可以当作2个工人，但是不能再拆除场馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该员工被派遣时，获得$1点时间点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该员工被派遣时，抽$1张牌。之后额外获得一张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该员工被派遣时，扩建$1块随机地块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每季度开始时，随机获得下列其中一项：+10块钱，+1临时工人，-5人气值，+1随机诅咒牌，+1随机物品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除最多{num=1}张诅咒牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直接弃置诅咒牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除手上的$1张诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X人气值，X为累计获得过的诅咒牌数。(当前为$d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出条件：
+{cond=至少拥有10个海洋场馆}
+{cont=获得3点人气值.如果与3个澳洲野犬场馆相邻，额外获得3点人气值。}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardContWithCond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigExhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallExhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得随机项： </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssPopularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssHalfChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssPlotRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssCurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRandomGain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRPopularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRTWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRCurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过收入获得{0}金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}人气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}本随机书籍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功通过50%概率获得{0}金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}个随机地图奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽{0}张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}人气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}个临时工人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}张随机诅咒牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}本随机书籍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3519,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3528,7 +3684,7 @@
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.58203125" customWidth="1"/>
   </cols>
@@ -3544,10 +3700,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3555,1933 +3711,1933 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>592</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>590</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>589</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>593</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>595</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>596</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>597</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>390</v>
+        <v>659</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>598</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>391</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>600</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>408</v>
+        <v>662</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>584</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>392</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>603</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>588</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>605</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>606</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>609</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="C36" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D36" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D37" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D38" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D39" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>611</v>
+        <v>676</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D40" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D41" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D42" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>612</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D43" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>613</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D44" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>626</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>614</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>399</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>400</v>
+        <v>691</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>401</v>
+        <v>692</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>402</v>
+        <v>693</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>617</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>618</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>620</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>621</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>556</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>403</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>404</v>
+        <v>684</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>699</v>
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>625</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>628</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>629</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>631</v>
+        <v>687</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D68" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D69" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D70" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>633</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C73" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D73" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B74" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D74" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>700</v>
+        <v>401</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>635</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D76" t="s">
-        <v>700</v>
+        <v>401</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>700</v>
+        <v>401</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>406</v>
+        <v>694</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>636</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>409</v>
+        <v>695</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>637</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>411</v>
+        <v>696</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>638</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>641</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>643</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>644</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>646</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>647</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>649</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>650</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>651</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>653</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>654</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>655</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B99" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>656</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>657</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D104" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D105" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>665</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D106" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>659</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D107" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>660</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B108" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D108" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>661</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D109" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>666</v>
+        <v>556</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>666</v>
+        <v>556</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C111" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D111" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>666</v>
+        <v>556</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C112" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>667</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>412</v>
+        <v>708</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>668</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>413</v>
+        <v>707</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>414</v>
+        <v>706</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>670</v>
+        <v>711</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>415</v>
+        <v>705</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>673</v>
+        <v>558</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s">
-        <v>702</v>
+        <v>644</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>674</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>675</v>
+        <v>560</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>676</v>
+        <v>561</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>677</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>678</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>679</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>680</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>681</v>
+        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>682</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>683</v>
+        <v>568</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>684</v>
+        <v>569</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>685</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="B134" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>686</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>454</v>
+        <v>712</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="B137" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="B138" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5651,7 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5518,299 +5674,299 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>467</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>761</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>704</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>392</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>552</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>707</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>709</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>711</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>712</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>713</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B29" t="s">
-        <v>702</v>
+        <v>574</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>556</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5821,10 +5977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256234DA-DFCC-4C64-B075-94895DF2EFDB}">
-  <dimension ref="A2:B69"/>
+  <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5845,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5861,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5869,7 +6025,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5877,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +6041,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,7 +6049,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5901,7 +6057,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5909,7 +6065,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +6073,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +6081,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +6089,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +6097,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +6105,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +6121,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +6129,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +6137,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,7 +6145,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>489</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +6161,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>491</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6013,7 +6169,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>492</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,7 +6177,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>493</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +6185,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6037,7 +6193,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>495</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6045,7 +6201,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6053,7 +6209,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6061,7 +6217,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>498</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6069,7 +6225,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +6233,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6085,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6093,7 +6249,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +6257,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6109,7 +6265,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>503</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,7 +6273,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6125,7 +6281,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>505</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6133,7 +6289,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>506</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6141,7 +6297,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,7 +6305,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6157,7 +6313,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>509</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6165,7 +6321,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6173,7 +6329,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>511</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6181,7 +6337,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>512</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6189,7 +6345,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>513</v>
+        <v>744</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6197,7 +6353,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6205,7 +6361,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6213,7 +6369,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6221,7 +6377,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6229,7 +6385,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6237,7 +6393,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +6401,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>520</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6253,7 +6409,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>521</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6261,7 +6417,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>522</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6269,7 +6425,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>523</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,7 +6433,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>524</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6285,7 +6441,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6449,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6301,7 +6457,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6309,7 +6465,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +6473,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6325,7 +6481,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>530</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6333,7 +6489,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6341,7 +6497,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6349,7 +6505,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>533</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,7 +6513,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>534</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6521,47 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>551</v>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6378,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56531302-81BA-451E-B9F8-11674876B135}">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6408,7 +6604,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6419,7 +6615,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6430,7 +6626,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>561</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6441,7 +6637,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6452,18 +6648,18 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>564</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6474,7 +6670,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6485,7 +6681,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>566</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6496,7 +6692,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>567</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6507,7 +6703,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6518,18 +6714,18 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>570</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6540,7 +6736,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6551,7 +6747,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>572</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6562,7 +6758,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>573</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6573,7 +6769,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>574</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6584,7 +6780,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6595,7 +6791,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>576</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6606,7 +6802,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6617,7 +6813,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>578</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6628,7 +6824,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>579</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6639,7 +6835,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>580</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6650,7 +6846,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6661,7 +6857,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6672,10 +6868,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2381D8-AD9F-4CD4-8A0B-553A26E5403C}">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="A47:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6694,199 +6890,199 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>717</v>
+        <v>578</v>
       </c>
       <c r="B4" t="s">
-        <v>717</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>579</v>
       </c>
       <c r="B5" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>739</v>
+        <v>599</v>
       </c>
       <c r="B6" t="s">
-        <v>716</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>600</v>
       </c>
       <c r="B7" t="s">
-        <v>719</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>739</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>720</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>741</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
-        <v>721</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>742</v>
+        <v>602</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>723</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>745</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
-        <v>724</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>746</v>
+        <v>606</v>
       </c>
       <c r="B13" t="s">
-        <v>725</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>747</v>
+        <v>607</v>
       </c>
       <c r="B14" t="s">
-        <v>726</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>608</v>
       </c>
       <c r="B15" t="s">
-        <v>760</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>749</v>
+        <v>609</v>
       </c>
       <c r="B16" t="s">
-        <v>727</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="B17" t="s">
-        <v>728</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>751</v>
+        <v>611</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>744</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
-        <v>730</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>752</v>
+        <v>612</v>
       </c>
       <c r="B20" t="s">
-        <v>731</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>613</v>
       </c>
       <c r="B21" t="s">
-        <v>732</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>754</v>
+        <v>614</v>
       </c>
       <c r="B22" t="s">
-        <v>733</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>615</v>
       </c>
       <c r="B23" t="s">
-        <v>734</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>756</v>
+        <v>616</v>
       </c>
       <c r="B24" t="s">
-        <v>735</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>757</v>
+        <v>617</v>
       </c>
       <c r="B25" t="s">
-        <v>736</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>758</v>
+        <v>618</v>
       </c>
       <c r="B26" t="s">
-        <v>737</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>759</v>
+        <v>619</v>
       </c>
       <c r="B27" t="s">
-        <v>738</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>779</v>
+        <v>622</v>
       </c>
       <c r="B28" t="s">
         <v>762</v>
@@ -6894,7 +7090,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>778</v>
+        <v>621</v>
       </c>
       <c r="B29" t="s">
         <v>763</v>
@@ -6902,114 +7098,242 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>780</v>
+        <v>623</v>
       </c>
       <c r="B30" t="s">
-        <v>764</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>781</v>
+        <v>624</v>
       </c>
       <c r="B31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>782</v>
+        <v>625</v>
       </c>
       <c r="B32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>626</v>
       </c>
       <c r="B33" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>784</v>
+        <v>627</v>
       </c>
       <c r="B34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>785</v>
+        <v>628</v>
       </c>
       <c r="B35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>786</v>
+        <v>629</v>
       </c>
       <c r="B36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>787</v>
+        <v>630</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>788</v>
+        <v>631</v>
       </c>
       <c r="B38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>789</v>
+        <v>632</v>
       </c>
       <c r="B39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>790</v>
+        <v>633</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>791</v>
+        <v>634</v>
       </c>
       <c r="B41" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>792</v>
+        <v>635</v>
       </c>
       <c r="B42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>793</v>
+        <v>636</v>
       </c>
       <c r="B43" t="s">
-        <v>777</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>802</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>805</v>
+      </c>
+      <c r="B45" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>806</v>
+      </c>
+      <c r="B46" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>808</v>
+      </c>
+      <c r="B47" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B48" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>810</v>
+      </c>
+      <c r="B49" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>811</v>
+      </c>
+      <c r="B50" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>812</v>
+      </c>
+      <c r="B51" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>813</v>
+      </c>
+      <c r="B52" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>814</v>
+      </c>
+      <c r="B53" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>815</v>
+      </c>
+      <c r="B54" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>816</v>
+      </c>
+      <c r="B55" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>817</v>
+      </c>
+      <c r="B56" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>818</v>
+      </c>
+      <c r="B57" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>819</v>
+      </c>
+      <c r="B58" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>820</v>
+      </c>
+      <c r="B59" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -7022,7 +7346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA98B64-469E-407C-B910-179387990111}">
   <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -7044,623 +7368,623 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D23" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="D24" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C29" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D30" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D32" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D35" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D36" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D38" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D39" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D40" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D44" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C47" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D47" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7673,8 +7997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E1049-6494-417E-A790-6BE56169812D}">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7698,25 +8022,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -7724,462 +8048,462 @@
     </row>
     <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
       <c r="E4" t="s">
+        <v>777</v>
+      </c>
+      <c r="F4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>778</v>
       </c>
       <c r="F5" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
       <c r="F6" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>779</v>
       </c>
       <c r="F7" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>780</v>
       </c>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>781</v>
       </c>
       <c r="F10" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>782</v>
       </c>
       <c r="F11" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>796</v>
       </c>
       <c r="F12" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>783</v>
       </c>
       <c r="F13" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>784</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>785</v>
       </c>
       <c r="F15" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>786</v>
       </c>
       <c r="F16" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>655</v>
       </c>
       <c r="F17" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>787</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>448</v>
+        <v>788</v>
       </c>
       <c r="F19" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>790</v>
       </c>
       <c r="F20" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>789</v>
       </c>
       <c r="F21" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>791</v>
       </c>
       <c r="F22" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>792</v>
       </c>
       <c r="F23" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8193,7 +8517,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8212,42 +8536,42 @@
     </row>
     <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>689</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>690</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>692</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/chinese.xlsx
+++ b/Excel/excel/chinese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB8150B-F2A5-4D9D-B2D9-90E20E8CFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99ADEF7-7DC4-4966-A3CA-145ADFD84278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="857">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,10 +1745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花费$2金钱，升级部门$1次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正面概率加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2883,10 +2879,6 @@
   </si>
   <si>
     <t>获得$1点时间点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费10+招募次数*10的金币,招募$1名新员工。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3345,6 +3337,109 @@
   </si>
   <si>
     <t>{0}本随机书籍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}个工人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}收入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}随机书籍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图奖励：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prTWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prDraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknowPlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待扩建的未知地块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantLeaveWhenResolving</t>
+  </si>
+  <si>
+    <t>不能在结算的时候离开这个页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailCont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$r金币招募1名工人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$r(10+13/12/11/10/9*招募次数【当前为$rt】)金币招募1名工人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么事情也没发生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothingHappened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gainIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}收入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费15金钱，升级部门1次。(每季度限$1次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantPlayActionSpaceCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经有15个部门了，不能再打出新的部门牌了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3675,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3732,7 +3827,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -3740,7 +3835,7 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
         <v>388</v>
@@ -3750,7 +3845,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3768,7 +3863,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3786,7 +3881,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3804,7 +3899,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3822,7 +3917,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3840,7 +3935,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3858,7 +3953,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3876,7 +3971,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3894,7 +3989,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3905,10 +4000,10 @@
         <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3919,10 +4014,10 @@
         <v>145</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3933,24 +4028,24 @@
         <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3962,7 +4057,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3974,7 +4069,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3986,7 +4081,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3994,11 +4089,11 @@
         <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4010,7 +4105,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4022,7 +4117,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4034,7 +4129,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4046,7 +4141,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4058,7 +4153,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4070,7 +4165,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4082,7 +4177,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4094,7 +4189,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4106,7 +4201,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4118,7 +4213,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4130,7 +4225,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4142,7 +4237,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4172,7 +4267,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4180,7 +4275,7 @@
         <v>276</v>
       </c>
       <c r="B36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C36" t="s">
         <v>389</v>
@@ -4190,7 +4285,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4208,7 +4303,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -4226,7 +4321,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4244,7 +4339,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4252,7 +4347,7 @@
         <v>280</v>
       </c>
       <c r="B40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -4298,7 +4393,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4316,7 +4411,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4334,7 +4429,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4352,7 +4447,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4366,7 +4461,7 @@
         <v>378</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,10 +4472,10 @@
         <v>176</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,10 +4486,10 @@
         <v>196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4405,10 +4500,10 @@
         <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,7 +4515,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4432,7 +4527,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4444,7 +4539,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4456,7 +4551,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4468,7 +4563,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4480,7 +4575,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4492,7 +4587,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -4504,7 +4599,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4516,7 +4611,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4528,7 +4623,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4540,7 +4635,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -4552,7 +4647,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -4564,7 +4659,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4576,7 +4671,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4588,7 +4683,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -4600,7 +4695,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4612,7 +4707,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4624,7 +4719,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4660,7 +4755,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -4678,7 +4773,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -4696,7 +4791,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -4714,7 +4809,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4732,7 +4827,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4750,7 +4845,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4768,7 +4863,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -4786,7 +4881,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4804,7 +4899,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -4815,10 +4910,10 @@
         <v>195</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -4829,10 +4924,10 @@
         <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -4846,7 +4941,7 @@
         <v>381</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,10 +4952,10 @@
         <v>198</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4872,7 +4967,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -4884,7 +4979,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4896,7 +4991,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -4908,7 +5003,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4920,7 +5015,7 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -4932,7 +5027,7 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -4944,7 +5039,7 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,7 +5051,7 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4968,7 +5063,7 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4980,7 +5075,7 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4992,7 +5087,7 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5004,7 +5099,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,7 +5111,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5028,7 +5123,7 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5040,7 +5135,7 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5052,7 +5147,7 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5064,7 +5159,7 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5076,7 +5171,7 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5094,7 +5189,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5112,7 +5207,7 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5130,7 +5225,7 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5148,7 +5243,7 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,7 +5261,7 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5184,7 +5279,7 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5202,7 +5297,7 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5220,7 +5315,7 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5238,7 +5333,7 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -5256,7 +5351,7 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -5274,7 +5369,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5292,7 +5387,7 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -5310,7 +5405,7 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -5321,10 +5416,10 @@
         <v>224</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -5335,10 +5430,10 @@
         <v>225</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -5349,10 +5444,10 @@
         <v>226</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,10 +5458,10 @@
         <v>227</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -5378,7 +5473,7 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -5390,7 +5485,7 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -5402,7 +5497,7 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -5410,11 +5505,11 @@
         <v>358</v>
       </c>
       <c r="B120" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -5426,7 +5521,7 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -5438,7 +5533,7 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -5450,7 +5545,7 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -5462,7 +5557,7 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -5474,7 +5569,7 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -5486,7 +5581,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -5522,7 +5617,7 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -5534,7 +5629,7 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,7 +5641,7 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -5558,7 +5653,7 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -5570,7 +5665,7 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -5578,11 +5673,11 @@
         <v>428</v>
       </c>
       <c r="B134" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -5604,7 +5699,7 @@
         <v>417</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -5648,10 +5743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5659,9 +5754,10 @@
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5671,32 +5767,35 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -5705,62 +5804,65 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="D7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>259</v>
       </c>
@@ -5768,10 +5870,10 @@
         <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -5779,10 +5881,10 @@
         <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -5790,10 +5892,10 @@
         <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -5801,10 +5903,10 @@
         <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -5812,7 +5914,7 @@
         <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5823,7 +5925,7 @@
         <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5834,7 +5936,7 @@
         <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5845,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5856,7 +5958,7 @@
         <v>181</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5867,7 +5969,7 @@
         <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5878,7 +5980,7 @@
         <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5889,7 +5991,7 @@
         <v>201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5900,7 +6002,7 @@
         <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5911,7 +6013,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5922,7 +6024,7 @@
         <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5933,7 +6035,7 @@
         <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5944,7 +6046,7 @@
         <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,10 +6054,10 @@
         <v>358</v>
       </c>
       <c r="B29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5966,7 +6068,7 @@
         <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5979,8 +6081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256234DA-DFCC-4C64-B075-94895DF2EFDB}">
   <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6001,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6009,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6017,7 +6119,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6025,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6033,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6041,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6049,7 +6151,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6057,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6065,7 +6167,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6073,7 +6175,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6081,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6089,7 +6191,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6097,7 +6199,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6105,7 +6207,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6113,7 +6215,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6121,7 +6223,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6129,7 +6231,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6137,7 +6239,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6145,7 +6247,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6153,7 +6255,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6161,7 +6263,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6169,7 +6271,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6177,7 +6279,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6185,7 +6287,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6193,7 +6295,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6201,7 +6303,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6209,7 +6311,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6217,7 +6319,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6225,7 +6327,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6233,7 +6335,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6241,7 +6343,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6249,7 +6351,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6257,7 +6359,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6265,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6273,7 +6375,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +6383,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6289,7 +6391,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6297,7 +6399,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6305,7 +6407,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6313,7 +6415,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6321,7 +6423,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6329,7 +6431,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6337,7 +6439,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6345,7 +6447,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +6455,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6361,7 +6463,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6369,7 +6471,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6377,7 +6479,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6385,7 +6487,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6393,7 +6495,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6401,7 +6503,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6409,7 +6511,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6417,7 +6519,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6425,7 +6527,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6433,7 +6535,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6441,7 +6543,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6449,7 +6551,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6457,7 +6559,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6465,7 +6567,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6473,7 +6575,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6481,7 +6583,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6489,7 +6591,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6497,7 +6599,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6505,7 +6607,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6513,7 +6615,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6521,7 +6623,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6529,7 +6631,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6537,7 +6639,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6545,7 +6647,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,7 +6655,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6561,7 +6663,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -6574,8 +6676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56531302-81BA-451E-B9F8-11674876B135}">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6604,7 +6706,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6615,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6626,7 +6728,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6637,7 +6739,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6648,7 +6750,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6659,7 +6761,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6670,7 +6772,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6681,7 +6783,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6692,7 +6794,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6703,7 +6805,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6714,7 +6816,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6725,7 +6827,7 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6736,7 +6838,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6747,7 +6849,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6758,7 +6860,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6769,7 +6871,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6780,7 +6882,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6791,7 +6893,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6802,7 +6904,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6813,7 +6915,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6824,7 +6926,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6835,7 +6937,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6846,7 +6948,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6857,7 +6959,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6868,10 +6970,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2381D8-AD9F-4CD4-8A0B-553A26E5403C}">
-  <dimension ref="A2:B59"/>
+  <dimension ref="A2:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="A47:B59"/>
+    <sheetView topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6890,34 +6992,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6925,167 +7027,167 @@
         <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B14" t="s">
-        <v>797</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B15" t="s">
-        <v>620</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B16" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B28" t="s">
-        <v>762</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7093,247 +7195,351 @@
         <v>621</v>
       </c>
       <c r="B29" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B30" t="s">
-        <v>459</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B34" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B35" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B36" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B37" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B38" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B39" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B40" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B41" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B42" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>802</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="B44" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="70" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>805</v>
-      </c>
-      <c r="B45" t="s">
-        <v>803</v>
+        <v>800</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B46" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B47" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B48" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B49" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B50" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B51" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B52" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B53" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B54" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B55" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B56" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B57" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B58" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B59" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>818</v>
+      </c>
+      <c r="B60" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>836</v>
+      </c>
+      <c r="B61" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>837</v>
+      </c>
+      <c r="B62" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>838</v>
+      </c>
+      <c r="B63" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>839</v>
+      </c>
+      <c r="B64" t="s">
         <v>832</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>840</v>
+      </c>
+      <c r="B65" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>841</v>
+      </c>
+      <c r="B66" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>835</v>
+      </c>
+      <c r="B67" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>842</v>
+      </c>
+      <c r="B68" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>844</v>
+      </c>
+      <c r="B69" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>851</v>
+      </c>
+      <c r="B70" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>852</v>
+      </c>
+      <c r="B71" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>855</v>
+      </c>
+      <c r="B72" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8266,7 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F4" t="s">
         <v>412</v>
@@ -8083,7 +8289,7 @@
         <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F5" t="s">
         <v>412</v>
@@ -8129,7 +8335,7 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F7" t="s">
         <v>412</v>
@@ -8172,10 +8378,10 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F9" t="s">
         <v>412</v>
@@ -8195,10 +8401,10 @@
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F10" t="s">
         <v>412</v>
@@ -8221,7 +8427,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F11" t="s">
         <v>412</v>
@@ -8244,7 +8450,7 @@
         <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F12" t="s">
         <v>412</v>
@@ -8267,7 +8473,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F13" t="s">
         <v>412</v>
@@ -8290,7 +8496,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F14" t="s">
         <v>412</v>
@@ -8313,7 +8519,7 @@
         <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F15" t="s">
         <v>412</v>
@@ -8336,7 +8542,7 @@
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F16" t="s">
         <v>412</v>
@@ -8356,10 +8562,10 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F17" t="s">
         <v>412</v>
@@ -8382,7 +8588,7 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F18" t="s">
         <v>412</v>
@@ -8405,7 +8611,7 @@
         <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F19" t="s">
         <v>412</v>
@@ -8428,7 +8634,7 @@
         <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F20" t="s">
         <v>412</v>
@@ -8451,7 +8657,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F21" t="s">
         <v>412</v>
@@ -8474,7 +8680,7 @@
         <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F22" t="s">
         <v>412</v>
@@ -8497,7 +8703,7 @@
         <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F23" t="s">
         <v>412</v>
@@ -8539,7 +8745,7 @@
         <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8547,7 +8753,7 @@
         <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8555,7 +8761,7 @@
         <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8563,7 +8769,7 @@
         <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8571,7 +8777,7 @@
         <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/chinese.xlsx
+++ b/Excel/excel/chinese.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99ADEF7-7DC4-4966-A3CA-145ADFD84278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70727AF3-9128-4220-A01F-30A2D7157189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
-    <sheet name="workPos" sheetId="5" r:id="rId2"/>
+    <sheet name="actionSpace" sheetId="5" r:id="rId2"/>
     <sheet name="buff" sheetId="7" r:id="rId3"/>
     <sheet name="book" sheetId="2" r:id="rId4"/>
     <sheet name="staticText" sheetId="8" r:id="rId5"/>
-    <sheet name="venue" sheetId="3" r:id="rId6"/>
+    <sheet name="exhibit" sheetId="3" r:id="rId6"/>
     <sheet name="event" sheetId="4" r:id="rId7"/>
     <sheet name="specWorker" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="856">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,10 +1166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>achi_poprating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>achi_buru</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2101,10 +2097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1人气值。获得$1人气值。获得$1人气值。获得$1人气值。获得$1人气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来的场馆结算$1次。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2133,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得$1人气值。每次结算后永久提升$2点该数值。(当前$d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将你利息的$1%作为额外的人气值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2429,18 +2417,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chooseVenueDemolish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copyCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>copyVenue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deleteBadIdea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2453,10 +2433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>playBigVenueFreely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>playMonkeyFreely</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2529,15 +2505,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OncePerTurn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DontHaveVenue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3440,6 +3408,38 @@
   </si>
   <si>
     <t>你已经有15个部门了，不能再打出新的部门牌了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得$1人气值。
+获得$1人气值。
+获得$1人气值。
+获得$1人气值。
+获得$1人气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achi_popularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyExhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playBigExhibitFreely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseExhibitDemolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontHaveExhibit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3770,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -3795,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3820,14 +3820,14 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -3835,17 +3835,17 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3856,14 +3856,14 @@
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3874,14 +3874,14 @@
         <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3892,14 +3892,14 @@
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3910,14 +3910,14 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3928,14 +3928,14 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3946,14 +3946,14 @@
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3964,32 +3964,32 @@
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,10 +4000,10 @@
         <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4014,10 +4014,10 @@
         <v>145</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4028,24 +4028,24 @@
         <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4089,11 +4089,11 @@
         <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4129,19 +4129,19 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4260,14 +4260,14 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" t="s">
         <v>389</v>
-      </c>
-      <c r="D35" t="s">
-        <v>390</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,17 +4275,17 @@
         <v>276</v>
       </c>
       <c r="B36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" t="s">
         <v>389</v>
-      </c>
-      <c r="D36" t="s">
-        <v>390</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4296,14 +4296,14 @@
         <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -4314,14 +4314,14 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4332,14 +4332,14 @@
         <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4347,35 +4347,35 @@
         <v>280</v>
       </c>
       <c r="B40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -4386,17 +4386,17 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -4404,17 +4404,17 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -4422,14 +4422,14 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>529</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4440,1299 +4440,1299 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>851</v>
       </c>
       <c r="B46" t="s">
         <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B47" t="s">
         <v>176</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
         <v>196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
         <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s">
         <v>180</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
         <v>181</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s">
         <v>182</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
         <v>183</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
         <v>184</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" t="s">
         <v>185</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
         <v>186</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s">
         <v>187</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s">
         <v>188</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s">
         <v>189</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s">
         <v>190</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
         <v>106</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B64" t="s">
         <v>191</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B65" t="s">
         <v>192</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B66" t="s">
         <v>193</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B67" t="s">
         <v>194</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s">
         <v>247</v>
       </c>
       <c r="C68" t="s">
+        <v>396</v>
+      </c>
+      <c r="D68" t="s">
         <v>397</v>
-      </c>
-      <c r="D68" t="s">
-        <v>398</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
         <v>248</v>
       </c>
       <c r="C69" t="s">
+        <v>396</v>
+      </c>
+      <c r="D69" t="s">
         <v>397</v>
-      </c>
-      <c r="D69" t="s">
-        <v>398</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
         <v>249</v>
       </c>
       <c r="C70" t="s">
+        <v>396</v>
+      </c>
+      <c r="D70" t="s">
         <v>397</v>
-      </c>
-      <c r="D70" t="s">
-        <v>398</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B71" t="s">
         <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B72" t="s">
         <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
         <v>252</v>
       </c>
       <c r="C73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B74" t="s">
         <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D74" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B75" t="s">
         <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B76" t="s">
         <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B77" t="s">
         <v>255</v>
       </c>
       <c r="C77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
         <v>195</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
         <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B80" t="s">
         <v>197</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" t="s">
         <v>198</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" t="s">
         <v>199</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B83" t="s">
         <v>200</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s">
         <v>201</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
         <v>202</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B87" t="s">
         <v>203</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B88" t="s">
         <v>204</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s">
         <v>205</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B90" t="s">
         <v>206</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B91" t="s">
         <v>207</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B92" t="s">
         <v>208</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s">
         <v>209</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B94" t="s">
         <v>210</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B95" t="s">
         <v>211</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s">
         <v>212</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s">
         <v>213</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s">
         <v>214</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B99" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s">
         <v>215</v>
       </c>
       <c r="C100" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" t="s">
         <v>402</v>
-      </c>
-      <c r="D100" t="s">
-        <v>403</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s">
         <v>216</v>
       </c>
       <c r="C101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" t="s">
         <v>402</v>
-      </c>
-      <c r="D101" t="s">
-        <v>403</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s">
         <v>217</v>
       </c>
       <c r="C102" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" t="s">
         <v>402</v>
-      </c>
-      <c r="D102" t="s">
-        <v>403</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s">
         <v>218</v>
       </c>
       <c r="C103" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" t="s">
         <v>402</v>
-      </c>
-      <c r="D103" t="s">
-        <v>403</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s">
         <v>219</v>
       </c>
       <c r="C104" t="s">
+        <v>401</v>
+      </c>
+      <c r="D104" t="s">
         <v>402</v>
-      </c>
-      <c r="D104" t="s">
-        <v>403</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
         <v>220</v>
       </c>
       <c r="C105" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" t="s">
         <v>402</v>
-      </c>
-      <c r="D105" t="s">
-        <v>403</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
         <v>221</v>
       </c>
       <c r="C106" t="s">
+        <v>401</v>
+      </c>
+      <c r="D106" t="s">
         <v>402</v>
-      </c>
-      <c r="D106" t="s">
-        <v>403</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s">
         <v>222</v>
       </c>
       <c r="C107" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" t="s">
         <v>402</v>
-      </c>
-      <c r="D107" t="s">
-        <v>403</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
         <v>223</v>
       </c>
       <c r="C108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" t="s">
         <v>402</v>
-      </c>
-      <c r="D108" t="s">
-        <v>403</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s">
         <v>244</v>
       </c>
       <c r="C109" t="s">
+        <v>401</v>
+      </c>
+      <c r="D109" t="s">
         <v>402</v>
-      </c>
-      <c r="D109" t="s">
-        <v>403</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B110" t="s">
         <v>242</v>
       </c>
       <c r="C110" t="s">
+        <v>401</v>
+      </c>
+      <c r="D110" t="s">
         <v>402</v>
-      </c>
-      <c r="D110" t="s">
-        <v>403</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s">
         <v>243</v>
       </c>
       <c r="C111" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" t="s">
         <v>402</v>
-      </c>
-      <c r="D111" t="s">
-        <v>403</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s">
         <v>245</v>
       </c>
       <c r="C112" t="s">
+        <v>401</v>
+      </c>
+      <c r="D112" t="s">
         <v>402</v>
-      </c>
-      <c r="D112" t="s">
-        <v>403</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s">
         <v>224</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s">
         <v>225</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s">
         <v>226</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s">
         <v>227</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
         <v>228</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
         <v>229</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B119" t="s">
         <v>230</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s">
         <v>231</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s">
         <v>232</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s">
         <v>233</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B125" t="s">
         <v>159</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B126" t="s">
         <v>234</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B127" t="s">
         <v>235</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B128" t="s">
         <v>236</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s">
         <v>237</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B130" t="s">
         <v>238</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s">
         <v>239</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
         <v>240</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
         <v>241</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B134" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B135" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B137" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B138" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B139" t="s">
+        <v>420</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5768,98 +5768,98 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -5892,7 +5892,7 @@
         <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -5903,7 +5903,7 @@
         <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,161 +5914,161 @@
         <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
         <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s">
         <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B27" t="s">
         <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
         <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B30" t="s">
         <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +6119,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6135,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6143,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6151,7 +6151,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6159,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6167,7 +6167,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6175,7 +6175,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6183,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6191,7 +6191,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6199,7 +6199,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6207,7 +6207,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6215,7 +6215,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6223,7 +6223,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6231,7 +6231,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6239,7 +6239,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6247,7 +6247,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6255,7 +6255,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6263,7 +6263,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6271,7 +6271,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6279,7 +6279,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6287,7 +6287,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6295,7 +6295,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6303,7 +6303,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6311,7 +6311,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6319,7 +6319,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6327,7 +6327,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6335,7 +6335,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6343,7 +6343,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6351,7 +6351,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6359,7 +6359,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6367,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6375,7 +6375,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6391,7 +6391,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6399,7 +6399,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6407,7 +6407,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6415,7 +6415,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6423,7 +6423,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6431,7 +6431,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6439,7 +6439,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6447,7 +6447,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6455,7 +6455,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6463,7 +6463,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6471,7 +6471,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6479,7 +6479,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6487,7 +6487,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6495,7 +6495,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6503,7 +6503,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6511,7 +6511,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6519,7 +6519,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6535,7 +6535,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6543,7 +6543,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6551,7 +6551,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6559,7 +6559,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6567,7 +6567,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6575,7 +6575,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6583,7 +6583,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6591,7 +6591,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6599,7 +6599,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6607,7 +6607,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6615,7 +6615,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6623,7 +6623,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6639,7 +6639,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6647,7 +6647,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6655,7 +6655,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6663,7 +6663,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6706,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6728,7 +6728,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6739,7 +6739,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6750,18 +6750,18 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6772,7 +6772,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6783,7 +6783,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6794,7 +6794,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6816,18 +6816,18 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6838,7 +6838,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6849,7 +6849,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6860,7 +6860,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6871,7 +6871,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6882,7 +6882,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6893,7 +6893,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6904,7 +6904,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6915,7 +6915,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6926,7 +6926,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6937,7 +6937,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6948,7 +6948,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6959,7 +6959,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -6972,8 +6972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2381D8-AD9F-4CD4-8A0B-553A26E5403C}">
   <dimension ref="A2:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6992,554 +6992,554 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>852</v>
       </c>
       <c r="B14" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B15" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B16" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>609</v>
+        <v>853</v>
       </c>
       <c r="B18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>854</v>
       </c>
       <c r="B20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B26" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B27" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B29" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B30" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B32" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B33" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B34" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B35" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B36" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>628</v>
+        <v>850</v>
       </c>
       <c r="B37" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B38" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>630</v>
+        <v>855</v>
       </c>
       <c r="B39" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B40" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B41" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B42" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B43" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B44" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="70" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B46" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B47" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B48" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B49" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B50" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B51" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B52" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B53" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B54" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B55" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B56" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B57" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B58" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B59" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B60" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B61" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B62" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B63" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B64" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B65" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B66" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B67" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B68" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B69" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B70" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B71" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B72" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -7574,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7585,10 +7585,10 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7599,10 +7599,10 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7613,10 +7613,10 @@
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7627,10 +7627,10 @@
         <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7641,10 +7641,10 @@
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7655,10 +7655,10 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7669,10 +7669,10 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7683,10 +7683,10 @@
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7697,24 +7697,24 @@
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7725,10 +7725,10 @@
         <v>164</v>
       </c>
       <c r="C14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" t="s">
         <v>389</v>
-      </c>
-      <c r="D14" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7739,10 +7739,10 @@
         <v>165</v>
       </c>
       <c r="C15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" t="s">
         <v>389</v>
-      </c>
-      <c r="D15" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7753,10 +7753,10 @@
         <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7767,10 +7767,10 @@
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7781,10 +7781,10 @@
         <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7795,24 +7795,24 @@
         <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
         <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7823,10 +7823,10 @@
         <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7837,10 +7837,10 @@
         <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7851,10 +7851,10 @@
         <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7865,332 +7865,332 @@
         <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
         <v>247</v>
       </c>
       <c r="C25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" t="s">
         <v>397</v>
-      </c>
-      <c r="D25" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
         <v>248</v>
       </c>
       <c r="C26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" t="s">
         <v>397</v>
-      </c>
-      <c r="D26" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
         <v>249</v>
       </c>
       <c r="C27" t="s">
+        <v>396</v>
+      </c>
+      <c r="D27" t="s">
         <v>397</v>
-      </c>
-      <c r="D27" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
         <v>251</v>
       </c>
       <c r="C29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
         <v>252</v>
       </c>
       <c r="C30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
         <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
         <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
         <v>215</v>
       </c>
       <c r="C35" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" t="s">
         <v>402</v>
-      </c>
-      <c r="D35" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s">
         <v>216</v>
       </c>
       <c r="C36" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" t="s">
         <v>402</v>
-      </c>
-      <c r="D36" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
         <v>217</v>
       </c>
       <c r="C37" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" t="s">
         <v>402</v>
-      </c>
-      <c r="D37" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s">
         <v>218</v>
       </c>
       <c r="C38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" t="s">
         <v>402</v>
-      </c>
-      <c r="D38" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
         <v>219</v>
       </c>
       <c r="C39" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" t="s">
         <v>402</v>
-      </c>
-      <c r="D39" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
         <v>220</v>
       </c>
       <c r="C40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" t="s">
         <v>402</v>
-      </c>
-      <c r="D40" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
         <v>221</v>
       </c>
       <c r="C41" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" t="s">
         <v>402</v>
-      </c>
-      <c r="D41" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s">
         <v>222</v>
       </c>
       <c r="C42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" t="s">
         <v>402</v>
-      </c>
-      <c r="D42" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s">
         <v>223</v>
       </c>
       <c r="C43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" t="s">
         <v>402</v>
-      </c>
-      <c r="D43" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s">
         <v>244</v>
       </c>
       <c r="C44" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" t="s">
         <v>402</v>
-      </c>
-      <c r="D44" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" t="s">
         <v>402</v>
-      </c>
-      <c r="D45" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" t="s">
         <v>402</v>
-      </c>
-      <c r="D46" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s">
         <v>245</v>
       </c>
       <c r="C47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" t="s">
         <v>402</v>
-      </c>
-      <c r="D47" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -8228,25 +8228,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -8266,10 +8266,10 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G4" t="s">
         <v>63</v>
@@ -8286,13 +8286,13 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
@@ -8315,7 +8315,7 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G6" t="s">
         <v>63</v>
@@ -8335,10 +8335,10 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -8361,7 +8361,7 @@
         <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
@@ -8378,13 +8378,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E9" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
@@ -8401,13 +8401,13 @@
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E10" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G10" t="s">
         <v>63</v>
@@ -8427,10 +8427,10 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -8450,10 +8450,10 @@
         <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -8473,10 +8473,10 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
@@ -8496,10 +8496,10 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G14" t="s">
         <v>63</v>
@@ -8519,10 +8519,10 @@
         <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -8542,10 +8542,10 @@
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G16" t="s">
         <v>63</v>
@@ -8562,13 +8562,13 @@
         <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E17" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G17" t="s">
         <v>63</v>
@@ -8588,10 +8588,10 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G18" t="s">
         <v>63</v>
@@ -8611,10 +8611,10 @@
         <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G19" t="s">
         <v>63</v>
@@ -8634,10 +8634,10 @@
         <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G20" t="s">
         <v>63</v>
@@ -8657,10 +8657,10 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -8680,10 +8680,10 @@
         <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -8703,10 +8703,10 @@
         <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -8745,7 +8745,7 @@
         <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8753,31 +8753,31 @@
         <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
